--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Gdf9-Bmpr1b.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Gdf9-Bmpr1b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,12 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
@@ -86,9 +92,6 @@
   </si>
   <si>
     <t>Bmpr1b</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.354994089171382</v>
+        <v>1.581182666666667</v>
       </c>
       <c r="H2">
-        <v>0.354994089171382</v>
+        <v>4.743548</v>
       </c>
       <c r="I2">
-        <v>0.4343941510035617</v>
+        <v>0.2313516192010878</v>
       </c>
       <c r="J2">
-        <v>0.4343941510035617</v>
+        <v>0.2313516192010878</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>3.84809799766795</v>
+        <v>0.039133</v>
       </c>
       <c r="N2">
-        <v>3.84809799766795</v>
+        <v>0.117399</v>
       </c>
       <c r="O2">
-        <v>0.9413727237897793</v>
+        <v>0.00872147833139909</v>
       </c>
       <c r="P2">
-        <v>0.9413727237897793</v>
+        <v>0.00872147833139909</v>
       </c>
       <c r="Q2">
-        <v>1.366052043724353</v>
+        <v>0.06187642129466667</v>
       </c>
       <c r="R2">
-        <v>1.366052043724353</v>
+        <v>0.556887791652</v>
       </c>
       <c r="S2">
-        <v>0.4089268051285716</v>
+        <v>0.002017728133796381</v>
       </c>
       <c r="T2">
-        <v>0.4089268051285716</v>
+        <v>0.002017728133796381</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,123 +584,123 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.354994089171382</v>
+        <v>1.581182666666667</v>
       </c>
       <c r="H3">
-        <v>0.354994089171382</v>
+        <v>4.743548</v>
       </c>
       <c r="I3">
-        <v>0.4343941510035617</v>
+        <v>0.2313516192010878</v>
       </c>
       <c r="J3">
-        <v>0.4343941510035617</v>
+        <v>0.2313516192010878</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.2396537508385</v>
+        <v>4.187332</v>
       </c>
       <c r="N3">
-        <v>0.2396537508385</v>
+        <v>12.561996</v>
       </c>
       <c r="O3">
-        <v>0.05862727621022062</v>
+        <v>0.933220691088698</v>
       </c>
       <c r="P3">
-        <v>0.05862727621022062</v>
+        <v>0.9332206910886979</v>
       </c>
       <c r="Q3">
-        <v>0.08507566499541862</v>
+        <v>6.620936777978668</v>
       </c>
       <c r="R3">
-        <v>0.08507566499541862</v>
+        <v>59.588431001808</v>
       </c>
       <c r="S3">
-        <v>0.0254673458749901</v>
+        <v>0.2159021179553284</v>
       </c>
       <c r="T3">
-        <v>0.0254673458749901</v>
+        <v>0.2159021179553284</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.462222460248666</v>
+        <v>1.581182666666667</v>
       </c>
       <c r="H4">
-        <v>0.462222460248666</v>
+        <v>4.743548</v>
       </c>
       <c r="I4">
-        <v>0.5656058489964383</v>
+        <v>0.2313516192010878</v>
       </c>
       <c r="J4">
-        <v>0.5656058489964383</v>
+        <v>0.2313516192010878</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.84809799766795</v>
+        <v>0.2605036666666667</v>
       </c>
       <c r="N4">
-        <v>3.84809799766795</v>
+        <v>0.7815110000000001</v>
       </c>
       <c r="O4">
-        <v>0.9413727237897793</v>
+        <v>0.05805783057990302</v>
       </c>
       <c r="P4">
-        <v>0.9413727237897793</v>
+        <v>0.05805783057990302</v>
       </c>
       <c r="Q4">
-        <v>1.778677323760045</v>
+        <v>0.4119038823364445</v>
       </c>
       <c r="R4">
-        <v>1.778677323760045</v>
+        <v>3.707134941028</v>
       </c>
       <c r="S4">
-        <v>0.5324459186612077</v>
+        <v>0.01343177311196299</v>
       </c>
       <c r="T4">
-        <v>0.5324459186612077</v>
+        <v>0.013431773111963</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +708,557 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>4.376645666666667</v>
+      </c>
+      <c r="H5">
+        <v>13.129937</v>
+      </c>
+      <c r="I5">
+        <v>0.6403713391238527</v>
+      </c>
+      <c r="J5">
+        <v>0.6403713391238528</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.039133</v>
+      </c>
+      <c r="N5">
+        <v>0.117399</v>
+      </c>
+      <c r="O5">
+        <v>0.00872147833139909</v>
+      </c>
+      <c r="P5">
+        <v>0.00872147833139909</v>
+      </c>
+      <c r="Q5">
+        <v>0.1712712748736667</v>
+      </c>
+      <c r="R5">
+        <v>1.541441473863</v>
+      </c>
+      <c r="S5">
+        <v>0.0055849847582177</v>
+      </c>
+      <c r="T5">
+        <v>0.005584984758217701</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>4.376645666666667</v>
+      </c>
+      <c r="H6">
+        <v>13.129937</v>
+      </c>
+      <c r="I6">
+        <v>0.6403713391238527</v>
+      </c>
+      <c r="J6">
+        <v>0.6403713391238528</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>4.187332</v>
+      </c>
+      <c r="N6">
+        <v>12.561996</v>
+      </c>
+      <c r="O6">
+        <v>0.933220691088698</v>
+      </c>
+      <c r="P6">
+        <v>0.9332206910886979</v>
+      </c>
+      <c r="Q6">
+        <v>18.32646845269467</v>
+      </c>
+      <c r="R6">
+        <v>164.938216074252</v>
+      </c>
+      <c r="S6">
+        <v>0.5976077836505568</v>
+      </c>
+      <c r="T6">
+        <v>0.5976077836505568</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>4.376645666666667</v>
+      </c>
+      <c r="H7">
+        <v>13.129937</v>
+      </c>
+      <c r="I7">
+        <v>0.6403713391238527</v>
+      </c>
+      <c r="J7">
+        <v>0.6403713391238528</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.2605036666666667</v>
+      </c>
+      <c r="N7">
+        <v>0.7815110000000001</v>
+      </c>
+      <c r="O7">
+        <v>0.05805783057990302</v>
+      </c>
+      <c r="P7">
+        <v>0.05805783057990302</v>
+      </c>
+      <c r="Q7">
+        <v>1.140132243867445</v>
+      </c>
+      <c r="R7">
+        <v>10.261190194807</v>
+      </c>
+      <c r="S7">
+        <v>0.03717857071507826</v>
+      </c>
+      <c r="T7">
+        <v>0.03717857071507827</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.3807653333333333</v>
+      </c>
+      <c r="H8">
+        <v>1.142296</v>
+      </c>
+      <c r="I8">
+        <v>0.05571189101637125</v>
+      </c>
+      <c r="J8">
+        <v>0.05571189101637125</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.039133</v>
+      </c>
+      <c r="N8">
+        <v>0.117399</v>
+      </c>
+      <c r="O8">
+        <v>0.00872147833139909</v>
+      </c>
+      <c r="P8">
+        <v>0.00872147833139909</v>
+      </c>
+      <c r="Q8">
+        <v>0.01490048978933333</v>
+      </c>
+      <c r="R8">
+        <v>0.134104408104</v>
+      </c>
+      <c r="S8">
+        <v>0.0004858900503005495</v>
+      </c>
+      <c r="T8">
+        <v>0.0004858900503005495</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.3807653333333333</v>
+      </c>
+      <c r="H9">
+        <v>1.142296</v>
+      </c>
+      <c r="I9">
+        <v>0.05571189101637125</v>
+      </c>
+      <c r="J9">
+        <v>0.05571189101637125</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>4.187332</v>
+      </c>
+      <c r="N9">
+        <v>12.561996</v>
+      </c>
+      <c r="O9">
+        <v>0.933220691088698</v>
+      </c>
+      <c r="P9">
+        <v>0.9332206910886979</v>
+      </c>
+      <c r="Q9">
+        <v>1.594390864757333</v>
+      </c>
+      <c r="R9">
+        <v>14.349517782816</v>
+      </c>
+      <c r="S9">
+        <v>0.0519914894361562</v>
+      </c>
+      <c r="T9">
+        <v>0.0519914894361562</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.3807653333333333</v>
+      </c>
+      <c r="H10">
+        <v>1.142296</v>
+      </c>
+      <c r="I10">
+        <v>0.05571189101637125</v>
+      </c>
+      <c r="J10">
+        <v>0.05571189101637125</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.2605036666666667</v>
+      </c>
+      <c r="N10">
+        <v>0.7815110000000001</v>
+      </c>
+      <c r="O10">
+        <v>0.05805783057990302</v>
+      </c>
+      <c r="P10">
+        <v>0.05805783057990302</v>
+      </c>
+      <c r="Q10">
+        <v>0.09919076547288889</v>
+      </c>
+      <c r="R10">
+        <v>0.892716889256</v>
+      </c>
+      <c r="S10">
+        <v>0.003234511529914503</v>
+      </c>
+      <c r="T10">
+        <v>0.003234511529914503</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.4959496666666667</v>
+      </c>
+      <c r="H11">
+        <v>1.487849</v>
+      </c>
+      <c r="I11">
+        <v>0.07256515065868824</v>
+      </c>
+      <c r="J11">
+        <v>0.07256515065868825</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.039133</v>
+      </c>
+      <c r="N11">
+        <v>0.117399</v>
+      </c>
+      <c r="O11">
+        <v>0.00872147833139909</v>
+      </c>
+      <c r="P11">
+        <v>0.00872147833139909</v>
+      </c>
+      <c r="Q11">
+        <v>0.01940799830566667</v>
+      </c>
+      <c r="R11">
+        <v>0.174671984751</v>
+      </c>
+      <c r="S11">
+        <v>0.0006328753890844598</v>
+      </c>
+      <c r="T11">
+        <v>0.0006328753890844599</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
         <v>21</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0.462222460248666</v>
-      </c>
-      <c r="H5">
-        <v>0.462222460248666</v>
-      </c>
-      <c r="I5">
-        <v>0.5656058489964383</v>
-      </c>
-      <c r="J5">
-        <v>0.5656058489964383</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>0.2396537508385</v>
-      </c>
-      <c r="N5">
-        <v>0.2396537508385</v>
-      </c>
-      <c r="O5">
-        <v>0.05862727621022062</v>
-      </c>
-      <c r="P5">
-        <v>0.05862727621022062</v>
-      </c>
-      <c r="Q5">
-        <v>0.1107733463203923</v>
-      </c>
-      <c r="R5">
-        <v>0.1107733463203923</v>
-      </c>
-      <c r="S5">
-        <v>0.03315993033523053</v>
-      </c>
-      <c r="T5">
-        <v>0.03315993033523053</v>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.4959496666666667</v>
+      </c>
+      <c r="H12">
+        <v>1.487849</v>
+      </c>
+      <c r="I12">
+        <v>0.07256515065868824</v>
+      </c>
+      <c r="J12">
+        <v>0.07256515065868825</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>4.187332</v>
+      </c>
+      <c r="N12">
+        <v>12.561996</v>
+      </c>
+      <c r="O12">
+        <v>0.933220691088698</v>
+      </c>
+      <c r="P12">
+        <v>0.9332206910886979</v>
+      </c>
+      <c r="Q12">
+        <v>2.076705909622667</v>
+      </c>
+      <c r="R12">
+        <v>18.690353186604</v>
+      </c>
+      <c r="S12">
+        <v>0.06771930004665652</v>
+      </c>
+      <c r="T12">
+        <v>0.06771930004665654</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.4959496666666667</v>
+      </c>
+      <c r="H13">
+        <v>1.487849</v>
+      </c>
+      <c r="I13">
+        <v>0.07256515065868824</v>
+      </c>
+      <c r="J13">
+        <v>0.07256515065868825</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.2605036666666667</v>
+      </c>
+      <c r="N13">
+        <v>0.7815110000000001</v>
+      </c>
+      <c r="O13">
+        <v>0.05805783057990302</v>
+      </c>
+      <c r="P13">
+        <v>0.05805783057990302</v>
+      </c>
+      <c r="Q13">
+        <v>0.1291967066487778</v>
+      </c>
+      <c r="R13">
+        <v>1.162770359839</v>
+      </c>
+      <c r="S13">
+        <v>0.004212975222947259</v>
+      </c>
+      <c r="T13">
+        <v>0.00421297522294726</v>
       </c>
     </row>
   </sheetData>
